--- a/docs/planning/TF_PlanificationProjet.xlsx
+++ b/docs/planning/TF_PlanificationProjet.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\PHP\TPI2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\PHP\ProjectTPI\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49DF5B8-5A5A-476D-96F2-EAB2677A4AD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818E3B3-5D19-4E28-8238-6F5876FB01F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
     <sheet name="Planning effectif" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -230,9 +229,6 @@
     <t>Connexion au site WEB</t>
   </si>
   <si>
-    <t>Affichage des itinéraires existantes</t>
-  </si>
-  <si>
     <t>Système de filtrage des itinéraires</t>
   </si>
   <si>
@@ -245,9 +241,6 @@
     <t>Affichage des itinéraires de l'utilisateur</t>
   </si>
   <si>
-    <t>Ajout/Modification des informations personnelles de l'utilisateur</t>
-  </si>
-  <si>
     <t>Ajout de commentaire</t>
   </si>
   <si>
@@ -258,9 +251,6 @@
   </si>
   <si>
     <t>Modification du status de l'utilisateur</t>
-  </si>
-  <si>
-    <t>Envoi de mail après changement de status</t>
   </si>
   <si>
     <t>Supression d'un itinéraire</t>
@@ -282,6 +272,18 @@
   </si>
   <si>
     <t>Affichage informations utilisateur</t>
+  </si>
+  <si>
+    <t>Création du MCD</t>
+  </si>
+  <si>
+    <t>Envoi de mail après changement de statut</t>
+  </si>
+  <si>
+    <t>Affichage des itinéraires existants</t>
+  </si>
+  <si>
+    <t>Ajout/Modification des informations personnelles d'un utilisateur</t>
   </si>
 </sst>
 </file>
@@ -4722,10 +4724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4821,7 +4823,7 @@
       <c r="L3" s="30"/>
       <c r="M3" s="32"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N59" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N60" si="0">SUM(C3:M3)</f>
         <v>0</v>
       </c>
     </row>
@@ -4867,7 +4869,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="32"/>
       <c r="N5" s="1">
-        <f>SUM(C5:M5)</f>
+        <f t="shared" ref="N5:N22" si="1">SUM(C5:M5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4892,7 +4894,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="34"/>
       <c r="N6" s="1">
-        <f>SUM(C6:M6)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="P6" s="1"/>
@@ -4918,7 +4920,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="34"/>
       <c r="N7" s="1">
-        <f>SUM(C7:M7)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -4942,7 +4944,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="34"/>
       <c r="N8" s="1">
-        <f>SUM(C8:M8)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -4966,7 +4968,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="34"/>
       <c r="N9" s="1">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -4989,7 +4991,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="34"/>
       <c r="N10" s="1">
-        <f>SUM(C10:M10)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -5012,7 +5014,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="34"/>
       <c r="N11" s="1">
-        <f>SUM(C11:M11)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -5035,7 +5037,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="34"/>
       <c r="N12" s="1">
-        <f>SUM(C12:M12)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -5059,7 +5061,7 @@
       <c r="L13" s="35"/>
       <c r="M13" s="34"/>
       <c r="N13" s="1">
-        <f>SUM(C13:M13)</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -5080,7 +5082,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="32"/>
       <c r="N14" s="1">
-        <f>SUM(C14:M14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5103,7 +5105,7 @@
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
       <c r="N15" s="1">
-        <f>SUM(C15:M15)</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -5127,7 +5129,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="34"/>
       <c r="N16" s="1">
-        <f>SUM(C16:M16)</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -5151,7 +5153,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="34"/>
       <c r="N17" s="1">
-        <f>SUM(C17:M17)</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -5175,7 +5177,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="34"/>
       <c r="N18" s="1">
-        <f>SUM(C18:M18)</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -5199,7 +5201,7 @@
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
       <c r="N19" s="1">
-        <f>SUM(C19:M19)</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -5223,7 +5225,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="34"/>
       <c r="N20" s="1">
-        <f>SUM(C20:M20)</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -5247,7 +5249,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="34"/>
       <c r="N21" s="1">
-        <f>SUM(C21:M21)</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -5271,7 +5273,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="34"/>
       <c r="N22" s="1">
-        <f>SUM(C22:M22)</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -5323,14 +5325,14 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B25" s="7">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="25">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="25"/>
@@ -5342,68 +5344,68 @@
       <c r="L25" s="33"/>
       <c r="M25" s="34"/>
       <c r="N25" s="1">
-        <f>SUM(C25:M25)</f>
-        <v>0.20833333333333334</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="1">
+        <f>SUM(C26:M26)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="1">
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C28" s="33"/>
-      <c r="D28" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E28" s="33"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="33"/>
       <c r="H28" s="25"/>
@@ -5414,21 +5416,21 @@
       <c r="M28" s="34"/>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B29" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="D29" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E29" s="33"/>
       <c r="F29" s="25"/>
       <c r="G29" s="33"/>
       <c r="H29" s="25"/>
@@ -5439,20 +5441,20 @@
       <c r="M29" s="34"/>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="25"/>
       <c r="E30" s="33">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="33"/>
@@ -5464,7 +5466,7 @@
       <c r="M30" s="34"/>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5472,75 +5474,75 @@
         <v>76</v>
       </c>
       <c r="B31" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F31" s="25"/>
       <c r="G31" s="33"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="I31" s="33"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="33"/>
       <c r="M31" s="34"/>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="40"/>
+      <c r="A32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
+      <c r="A33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B34" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5548,9 +5550,10 @@
       <c r="C34" s="33"/>
       <c r="D34" s="25"/>
       <c r="E34" s="33"/>
-      <c r="G34" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="F34" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G34" s="33"/>
       <c r="H34" s="25"/>
       <c r="I34" s="33"/>
       <c r="J34" s="25"/>
@@ -5564,34 +5567,31 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B35" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I35" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G35" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="33"/>
       <c r="M35" s="34"/>
       <c r="N35" s="1">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B36" s="7">
         <v>8.3333333333333329E-2</v>
@@ -5600,11 +5600,13 @@
       <c r="D36" s="25"/>
       <c r="E36" s="33"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="33">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I36" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="33"/>
@@ -5615,243 +5617,246 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="40"/>
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
       <c r="N37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F38" s="25">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
+      <c r="A38" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="40"/>
       <c r="N38" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="40"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F39" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="34"/>
       <c r="N39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="34"/>
+      <c r="A40" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="40"/>
       <c r="N40" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>78</v>
+      <c r="A41" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="B41" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="25"/>
       <c r="E41" s="33"/>
       <c r="F41" s="25"/>
       <c r="G41" s="33">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H41" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H41" s="25"/>
       <c r="I41" s="33"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="33"/>
       <c r="M41" s="34"/>
       <c r="N41" s="1">
-        <f t="shared" ref="N41" si="1">SUM(C41:M41)</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="25"/>
       <c r="E42" s="33"/>
       <c r="F42" s="25"/>
       <c r="G42" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H42" s="33"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H42" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I42" s="33"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="33"/>
       <c r="M42" s="34"/>
       <c r="N42" s="1">
+        <f t="shared" ref="N42" si="2">SUM(C42:M42)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="1">
-        <f>SUM(C43:M43)</f>
+      <c r="B44" s="21"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="1">
+        <f>SUM(C44:M44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="1">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="1">
-        <f>SUM(C45:M45)</f>
+      <c r="B46" s="21"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="1">
+        <f>SUM(C46:M46)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="15">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="33"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="1">
-        <f t="shared" ref="N46" si="2">SUM(C46:M46)</f>
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="15">
         <v>4.1666666666666664E-2</v>
@@ -5863,7 +5868,6 @@
       <c r="H47" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I47" s="33"/>
       <c r="K47" s="25"/>
       <c r="L47" s="33"/>
       <c r="M47" s="34"/>
@@ -5874,17 +5878,17 @@
     </row>
     <row r="48" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B48" s="15">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="25"/>
       <c r="E48" s="33"/>
       <c r="G48" s="25"/>
       <c r="H48" s="33">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I48" s="33"/>
       <c r="K48" s="25"/>
@@ -5892,12 +5896,12 @@
       <c r="M48" s="34"/>
       <c r="N48" s="1">
         <f t="shared" ref="N48" si="4">SUM(C48:M48)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49" s="15">
         <v>8.3333333333333329E-2</v>
@@ -5905,92 +5909,92 @@
       <c r="C49" s="33"/>
       <c r="D49" s="25"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="25">
+      <c r="G49" s="25"/>
+      <c r="H49" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="K49" s="25"/>
       <c r="L49" s="33"/>
       <c r="M49" s="34"/>
       <c r="N49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N49" si="5">SUM(C49:M49)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50" s="15">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="25"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="25"/>
+      <c r="F50" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G50" s="25"/>
-      <c r="H50" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="K50" s="25"/>
       <c r="L50" s="33"/>
       <c r="M50" s="34"/>
       <c r="N50" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I51" s="25"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="1">
-        <f>SUM(C51:M51)</f>
+      <c r="B52" s="21"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="1">
+        <f>SUM(C52:M52)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="33"/>
-      <c r="I52" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="1">
-        <f t="shared" ref="N52" si="5">SUM(C52:M52)</f>
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B53" s="7">
         <v>4.1666666666666664E-2</v>
@@ -6007,285 +6011,308 @@
       <c r="L53" s="33"/>
       <c r="M53" s="34"/>
       <c r="N53" s="1">
+        <f t="shared" ref="N53" si="6">SUM(C53:M53)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="33"/>
+      <c r="I54" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="1">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="1">
-        <f>SUM(C54:M54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="7">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M55" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="32"/>
       <c r="N55" s="1">
         <f>SUM(C55:M55)</f>
-        <v>0.22916666666666669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="L56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M56" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="N56" s="1">
+        <f>SUM(C56:M56)</f>
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B57" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K56" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L56" s="33">
+      <c r="C57" s="33"/>
+      <c r="D57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K57" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L57" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M56" s="34">
+      <c r="M57" s="34">
         <v>0.29166666666666669</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N57" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B58" s="15">
         <v>0.2638888888888889</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C58" s="33">
         <v>6.25E-2</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D58" s="33">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E58" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F58" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="1">
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="1">
         <f t="shared" si="0"/>
         <v>0.2638888888888889</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="1">
+      <c r="B59" s="19"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B60" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25">
+      <c r="C60" s="33"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K59" s="25">
+      <c r="K60" s="25">
         <v>0.27083333333333331</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L60" s="25">
         <v>0.22916666666666666</v>
       </c>
-      <c r="M59" s="34">
+      <c r="M60" s="34">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N60" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49">
-        <f>SUM(B2:B59)</f>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="B61" s="49">
+        <f t="shared" ref="B61:M61" si="7">SUM(B2:B60)</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="C60" s="49">
-        <f>SUM(C2:C59)</f>
+      <c r="C61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="D60" s="49">
-        <f>SUM(D2:D59)</f>
+      <c r="D61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E60" s="49">
-        <f>SUM(E2:E59)</f>
+      <c r="E61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F60" s="49">
-        <f>SUM(F2:F59)</f>
+      <c r="F61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G60" s="49">
-        <f>SUM(G2:G59)</f>
+      <c r="G61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="49">
-        <f>SUM(H2:H59)</f>
+      <c r="H61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I60" s="49">
-        <f>SUM(I2:I59)</f>
+      <c r="I61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J60" s="49">
-        <f>SUM(J2:J59)</f>
+      <c r="J61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K60" s="49">
-        <f>SUM(K2:K59)</f>
+      <c r="K61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L60" s="49">
-        <f>SUM(L2:L59)</f>
+      <c r="L61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M60" s="49">
-        <f>SUM(M2:M59)</f>
+      <c r="M61" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M61" s="1">
-        <f>SUM(C60:M60)</f>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <f>SUM(C61:M61)</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="N61" s="1">
-        <f>SUM(N2:N59)</f>
+      <c r="N62" s="1">
+        <f>SUM(N2:N60)</f>
         <v>3.666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 F14 H14:I14 I45 H49:H50 H56:I57 I56:I58 L56:L58 F56:F57 E56:E58 C56:C58 G56:G58 G43 G45 L49:L50 L45 E49:E50 E45 C49:C50 C45 I3:I29 E54:I54 E42:E43 L42:L43 I42:I43 C42:C43 E31:E40 L31:L40 G31:G40 C31:C40 L53:L54 L3:L29 G53 G3:G29 E53 E3:E29 C53:C54 C3:C29 I31:I40">
+  <conditionalFormatting sqref="C2:M2 F14 H14:I14 I46 H50:H51 H57:I58 I57:I59 L57:L59 F57:F58 E57:E59 C57:C59 G57:G59 G44 G46 L50:L51 L46 E50:E51 E46 C50:C51 C46 I3:I30 E55:I55 E43:E44 L43:L44 I43:I44 C43:C44 E32:E41 L32:L41 G32:G41 C32:C41 L54:L55 L3:L30 G54 G3:G30 E54 E3:E30 C54:C55 C3:C30 I32:I41">
     <cfRule type="cellIs" dxfId="485" priority="430" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C58 E58:M58 C49:E49 C50:F50 H50 C45:M45 C43:M43 I42:M43 C42:F43 G49:H49 C53:G53 C54:M54 K49:M50 L53:M53 C56:L57 C4:M14 L15:M15 C15:J15 C35:M40 C34:E34 G34:M34 C31:M33 C16:M29">
+  <conditionalFormatting sqref="C2:M2 C59 E59:M59 C50:E50 C51:F51 H51 C46:M46 C44:M44 I43:M44 C43:F44 G50:H50 C54:G54 C55:M55 K50:M51 L54:M54 C57:L58 C4:M14 L15:M15 C15:J15 C36:M41 C35:E35 G35:M35 C32:M34 C16:M30">
     <cfRule type="cellIs" dxfId="484" priority="429" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:K58 F58 H58 M58">
+  <conditionalFormatting sqref="J59:K59 F59 H59 M59">
     <cfRule type="cellIs" dxfId="483" priority="426" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 G14 J14:K14 J54:K54 G54 D54 D56:D57 G56:G57 J56:K57">
+  <conditionalFormatting sqref="D14 G14 J14:K14 J55:K55 G55 D55 D57:D58 G57:G58 J57:K58">
     <cfRule type="cellIs" dxfId="482" priority="425" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58 E58:M58 C49:E49 C50:F50 H50 C45:M45 C43:M43 I42:M43 C42:F43 G49:H49 C53:G53 C54:M54 K49:M50 L53:M53 C56:L57 C2:M14 L15:M15 C15:J15 C35:M40 C34:E34 G34:M34 C31:M33 C16:M29">
+  <conditionalFormatting sqref="C59 E59:M59 C50:E50 C51:F51 H51 C46:M46 C44:M44 I43:M44 C43:F44 G50:H50 C54:G54 C55:M55 K50:M51 L54:M54 C57:L58 C2:M14 L15:M15 C15:J15 C36:M41 C35:E35 G35:M35 C32:M34 C16:M30">
     <cfRule type="cellIs" dxfId="481" priority="422" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6296,7 +6323,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N49:N50 N42:N45 N2:N40 N53:N59">
+  <conditionalFormatting sqref="N50:N51 N43:N46 N54:N60 N2:N41">
     <cfRule type="cellIs" dxfId="478" priority="415" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
@@ -6304,7 +6331,7 @@
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+  <conditionalFormatting sqref="B61">
     <cfRule type="cellIs" dxfId="476" priority="417" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
@@ -6312,7 +6339,7 @@
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:M60">
+  <conditionalFormatting sqref="C61:M61">
     <cfRule type="cellIs" dxfId="474" priority="416" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
@@ -6325,27 +6352,27 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:J57">
+  <conditionalFormatting sqref="J57:J58">
     <cfRule type="cellIs" dxfId="471" priority="411" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:K57">
+  <conditionalFormatting sqref="K57:K58">
     <cfRule type="cellIs" dxfId="470" priority="410" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59 C59 G59 I59 L59">
+  <conditionalFormatting sqref="E60 C60 G60 I60 L60">
     <cfRule type="cellIs" dxfId="469" priority="404" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:M59">
+  <conditionalFormatting sqref="C60:M60">
     <cfRule type="cellIs" dxfId="468" priority="403" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:M59">
+  <conditionalFormatting sqref="C60:M60">
     <cfRule type="cellIs" dxfId="467" priority="400" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6356,27 +6383,27 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="464" priority="394" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J60">
     <cfRule type="cellIs" dxfId="463" priority="393" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
+  <conditionalFormatting sqref="K60">
     <cfRule type="cellIs" dxfId="462" priority="392" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G51">
     <cfRule type="cellIs" dxfId="461" priority="391" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G51">
     <cfRule type="cellIs" dxfId="460" priority="388" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6387,7 +6414,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="F60">
     <cfRule type="cellIs" dxfId="457" priority="387" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
@@ -6439,28 +6466,28 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M58">
+    <cfRule type="cellIs" dxfId="445" priority="353" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58">
+    <cfRule type="cellIs" dxfId="444" priority="350" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="351" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="352" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="445" priority="353" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="441" priority="349" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="444" priority="350" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="351" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="352" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
-    <cfRule type="cellIs" dxfId="441" priority="349" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
     <cfRule type="cellIs" dxfId="440" priority="346" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6471,17 +6498,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44 L44 E44 C44">
+  <conditionalFormatting sqref="G45 L45 E45 C45">
     <cfRule type="cellIs" dxfId="437" priority="337" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:G44 J44:M44">
+  <conditionalFormatting sqref="C45:G45 J45:M45">
     <cfRule type="cellIs" dxfId="436" priority="336" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:G44 J44:M44">
+  <conditionalFormatting sqref="C45:G45 J45:M45">
     <cfRule type="cellIs" dxfId="435" priority="333" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6497,37 +6524,37 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="431" priority="319" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="430" priority="318" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="429" priority="317" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="428" priority="316" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G43">
     <cfRule type="cellIs" dxfId="427" priority="315" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G43">
     <cfRule type="cellIs" dxfId="426" priority="314" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G43">
     <cfRule type="cellIs" dxfId="425" priority="311" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6538,17 +6565,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="422" priority="310" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="421" priority="309" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="420" priority="306" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6559,17 +6586,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="417" priority="300" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="416" priority="299" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="415" priority="296" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6580,17 +6607,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I50">
     <cfRule type="cellIs" dxfId="412" priority="290" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I50">
     <cfRule type="cellIs" dxfId="411" priority="289" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I50">
     <cfRule type="cellIs" dxfId="410" priority="286" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6601,17 +6628,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I51">
     <cfRule type="cellIs" dxfId="407" priority="285" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I51">
     <cfRule type="cellIs" dxfId="406" priority="284" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I51">
     <cfRule type="cellIs" dxfId="405" priority="281" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6622,17 +6649,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="J51">
     <cfRule type="cellIs" dxfId="402" priority="280" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="J51">
     <cfRule type="cellIs" dxfId="401" priority="279" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="J51">
     <cfRule type="cellIs" dxfId="400" priority="276" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6643,17 +6670,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J54">
     <cfRule type="cellIs" dxfId="397" priority="275" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J54">
     <cfRule type="cellIs" dxfId="396" priority="274" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J54">
     <cfRule type="cellIs" dxfId="395" priority="271" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6790,17 +6817,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55 E55 G55 I55 L55">
+  <conditionalFormatting sqref="C56 E56 G56 I56 L56">
     <cfRule type="cellIs" dxfId="362" priority="225" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:G55 I55:J55 L55">
+  <conditionalFormatting sqref="C56:G56 I56:J56 L56">
     <cfRule type="cellIs" dxfId="361" priority="224" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:G55 I55:J55 L55">
+  <conditionalFormatting sqref="C56:G56 I56:J56 L56">
     <cfRule type="cellIs" dxfId="360" priority="221" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6811,12 +6838,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H56">
     <cfRule type="cellIs" dxfId="357" priority="208" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H56">
     <cfRule type="cellIs" dxfId="356" priority="205" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6827,42 +6854,42 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="353" priority="211" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F56">
     <cfRule type="cellIs" dxfId="352" priority="210" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H56">
     <cfRule type="cellIs" dxfId="351" priority="209" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J56">
     <cfRule type="cellIs" dxfId="350" priority="204" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="349" priority="186" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K56">
     <cfRule type="cellIs" dxfId="348" priority="198" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K56">
     <cfRule type="cellIs" dxfId="347" priority="197" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K56">
     <cfRule type="cellIs" dxfId="346" priority="194" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6873,17 +6900,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55">
+  <conditionalFormatting sqref="M56">
     <cfRule type="cellIs" dxfId="343" priority="193" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55">
+  <conditionalFormatting sqref="M56">
     <cfRule type="cellIs" dxfId="342" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55">
+  <conditionalFormatting sqref="M56">
     <cfRule type="cellIs" dxfId="341" priority="189" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6894,47 +6921,47 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="338" priority="188" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J57">
     <cfRule type="cellIs" dxfId="337" priority="187" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="cellIs" dxfId="336" priority="185" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="cellIs" dxfId="335" priority="184" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="cellIs" dxfId="334" priority="183" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+  <conditionalFormatting sqref="E58">
     <cfRule type="cellIs" dxfId="333" priority="182" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51 G51 L51 E51 C51">
+  <conditionalFormatting sqref="I52 G52 L52 E52 C52">
     <cfRule type="cellIs" dxfId="332" priority="174" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:M51">
+  <conditionalFormatting sqref="C52:M52">
     <cfRule type="cellIs" dxfId="331" priority="173" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:M51">
+  <conditionalFormatting sqref="C52:M52">
     <cfRule type="cellIs" dxfId="330" priority="170" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6945,12 +6972,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N51">
+  <conditionalFormatting sqref="N52">
     <cfRule type="cellIs" dxfId="327" priority="168" operator="greaterThan">
-      <formula>$B51</formula>
+      <formula>$B52</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="326" priority="169" operator="equal">
-      <formula>$B51</formula>
+      <formula>$B52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22 G22 E22 C22">
@@ -7016,17 +7043,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 L48 E48 C48">
+  <conditionalFormatting sqref="H49 L49 E49 C49">
     <cfRule type="cellIs" dxfId="310" priority="150" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:E48 G48:H48 K48:M48">
+  <conditionalFormatting sqref="C49:E49 G49:H49 K49:M49">
     <cfRule type="cellIs" dxfId="309" priority="149" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:E48 G48:H48 K48:M48">
+  <conditionalFormatting sqref="C49:E49 G49:H49 K49:M49">
     <cfRule type="cellIs" dxfId="308" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7037,259 +7064,259 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="cellIs" dxfId="305" priority="144" operator="greaterThan">
+      <formula>$B49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="145" operator="equal">
+      <formula>$B49</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="303" priority="143" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="302" priority="142" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="301" priority="139" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="140" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="141" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42 L42 I42 C42">
+    <cfRule type="cellIs" dxfId="298" priority="138" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:M42 C42:F42">
+    <cfRule type="cellIs" dxfId="297" priority="137" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:M42 C42:F42">
+    <cfRule type="cellIs" dxfId="296" priority="134" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="135" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="136" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="cellIs" dxfId="293" priority="132" operator="greaterThan">
+      <formula>$B42</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="133" operator="equal">
+      <formula>$B42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="291" priority="131" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="290" priority="130" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="289" priority="127" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="128" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="129" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="286" priority="126" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="285" priority="125" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="284" priority="122" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="123" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="124" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="cellIs" dxfId="281" priority="95" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="cellIs" dxfId="280" priority="94" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="cellIs" dxfId="279" priority="91" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="92" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="93" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31 L31 I31 G31 C31">
+    <cfRule type="cellIs" dxfId="276" priority="109" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:M31">
+    <cfRule type="cellIs" dxfId="275" priority="108" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:M31">
+    <cfRule type="cellIs" dxfId="274" priority="105" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="106" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="107" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48 E48 C48">
+    <cfRule type="cellIs" dxfId="271" priority="102" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:E48 G48 K48:M48">
+    <cfRule type="cellIs" dxfId="270" priority="101" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:E48 G48 K48:M48">
+    <cfRule type="cellIs" dxfId="269" priority="98" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="99" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="100" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="305" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="96" operator="greaterThan">
       <formula>$B48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="97" operator="equal">
       <formula>$B48</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="303" priority="143" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="302" priority="142" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="301" priority="139" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="140" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="141" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41 L41 I41 C41">
-    <cfRule type="cellIs" dxfId="298" priority="138" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:M41 C41:F41">
-    <cfRule type="cellIs" dxfId="297" priority="137" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:M41 C41:F41">
-    <cfRule type="cellIs" dxfId="296" priority="134" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="135" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="136" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="293" priority="132" operator="greaterThan">
-      <formula>$B41</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="133" operator="equal">
-      <formula>$B41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="291" priority="131" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="290" priority="130" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="289" priority="127" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="128" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="129" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="286" priority="126" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="285" priority="125" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="284" priority="122" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="123" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="124" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="281" priority="95" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="280" priority="94" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="279" priority="91" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="92" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="93" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30 L30 I30 G30 C30">
-    <cfRule type="cellIs" dxfId="276" priority="109" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:M30">
-    <cfRule type="cellIs" dxfId="275" priority="108" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:M30">
-    <cfRule type="cellIs" dxfId="274" priority="105" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="106" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="107" operator="greaterThan">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="264" priority="83" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="263" priority="82" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="262" priority="79" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="80" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="81" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="259" priority="71" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="258" priority="70" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="257" priority="67" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="68" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="69" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47 E47 C47">
-    <cfRule type="cellIs" dxfId="271" priority="102" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:E47 G47 K47:M47">
-    <cfRule type="cellIs" dxfId="270" priority="101" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:E47 G47 K47:M47">
-    <cfRule type="cellIs" dxfId="269" priority="98" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="99" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="90" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:E47 G47:H47 K47:M47">
+    <cfRule type="cellIs" dxfId="253" priority="89" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:E47 G47:H47 K47:M47">
+    <cfRule type="cellIs" dxfId="252" priority="86" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="87" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="88" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N47">
-    <cfRule type="cellIs" dxfId="266" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="84" operator="greaterThan">
       <formula>$B47</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="85" operator="equal">
       <formula>$B47</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="264" priority="83" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="263" priority="82" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="262" priority="79" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="80" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="81" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="259" priority="71" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="258" priority="70" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="257" priority="67" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="68" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="69" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46 E46 C46">
-    <cfRule type="cellIs" dxfId="254" priority="90" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E46 G46:H46 K46:M46">
-    <cfRule type="cellIs" dxfId="253" priority="89" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:E46 G46:H46 K46:M46">
-    <cfRule type="cellIs" dxfId="252" priority="86" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="87" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="88" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46">
-    <cfRule type="cellIs" dxfId="249" priority="84" operator="greaterThan">
-      <formula>$B46</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="85" operator="equal">
-      <formula>$B46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52 G52 E52 C52">
+  <conditionalFormatting sqref="L53 G53 E53 C53">
     <cfRule type="cellIs" dxfId="247" priority="78" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:G52 L52:M52">
+  <conditionalFormatting sqref="C53:G53 L53:M53">
     <cfRule type="cellIs" dxfId="246" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:G52 L52:M52">
+  <conditionalFormatting sqref="C53:G53 L53:M53">
     <cfRule type="cellIs" dxfId="245" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7300,20 +7327,20 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
+  <conditionalFormatting sqref="N53">
     <cfRule type="cellIs" dxfId="242" priority="72" operator="greaterThan">
-      <formula>$B52</formula>
+      <formula>$B53</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="241" priority="73" operator="equal">
-      <formula>$B52</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+      <formula>$B53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
     <cfRule type="cellIs" dxfId="240" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F50">
     <cfRule type="cellIs" dxfId="239" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7324,17 +7351,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H48">
     <cfRule type="cellIs" dxfId="236" priority="62" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H48">
     <cfRule type="cellIs" dxfId="235" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H48">
     <cfRule type="cellIs" dxfId="234" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7345,38 +7372,38 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="231" priority="57" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="230" priority="56" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="229" priority="53" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="54" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="55" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="231" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="52" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="230" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="229" priority="53" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="54" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="55" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="226" priority="52" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="225" priority="51" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
     <cfRule type="cellIs" dxfId="224" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7387,17 +7414,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="221" priority="47" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="220" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="219" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/planning/TF_PlanificationProjet.xlsx
+++ b/docs/planning/TF_PlanificationProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\PHP\ProjectTPI\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818E3B3-5D19-4E28-8238-6F5876FB01F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2095E-0F41-41AB-BF31-F846C4BC19F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
@@ -247,12 +247,6 @@
     <t>Système de notation des itinéraires</t>
   </si>
   <si>
-    <t>Modification du status de l'itinéraire</t>
-  </si>
-  <si>
-    <t>Modification du status de l'utilisateur</t>
-  </si>
-  <si>
     <t>Supression d'un itinéraire</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>Affichage informations itinéraire</t>
   </si>
   <si>
-    <t>Affichage informations utilisateur</t>
-  </si>
-  <si>
     <t>Création du MCD</t>
   </si>
   <si>
@@ -284,6 +275,15 @@
   </si>
   <si>
     <t>Ajout/Modification des informations personnelles d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Modification du statut de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Affichage profil utilisateur</t>
+  </si>
+  <si>
+    <t>Modification du statut de l'itinéraire</t>
   </si>
 </sst>
 </file>
@@ -4726,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7">
         <v>8.3333333333333329E-2</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7">
         <v>8.3333333333333329E-2</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="7">
         <v>8.3333333333333329E-2</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="7">
         <v>8.3333333333333329E-2</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B45" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="47" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="15">
         <v>4.1666666666666664E-2</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="48" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="15">
         <v>4.1666666666666664E-2</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="51" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B51" s="15">
         <v>4.1666666666666664E-2</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B53" s="7">
         <v>4.1666666666666664E-2</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B54" s="7">
         <v>4.1666666666666664E-2</v>

--- a/docs/planning/TF_PlanificationProjet.xlsx
+++ b/docs/planning/TF_PlanificationProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\PHP\ProjectTPI\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2095E-0F41-41AB-BF31-F846C4BC19F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFBE0CA-B0B0-4E9A-8E88-7B51CBB6C0D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Affichage informations itinéraire</t>
   </si>
   <si>
-    <t>Création du MCD</t>
-  </si>
-  <si>
     <t>Envoi de mail après changement de statut</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>Modification du statut de l'itinéraire</t>
+  </si>
+  <si>
+    <t>Création des différentes maquettes d'interfaces utilisateur</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -525,9 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -562,7 +559,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="486">
+  <dxfs count="481">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3973,13 +3970,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4154,27 +4144,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -4284,13 +4253,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4724,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4737,7 +4699,7 @@
     <col min="3" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -4781,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -4806,7 +4768,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
@@ -4823,11 +4785,11 @@
       <c r="L3" s="30"/>
       <c r="M3" s="32"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N60" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N51" si="0">SUM(C3:M3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -4852,490 +4814,496 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="32"/>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N22" si="1">SUM(C5:M5)</f>
+        <f t="shared" ref="N5:N13" si="1">SUM(C5:M5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="33"/>
       <c r="D6" s="25"/>
       <c r="E6" s="33"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="I6" s="33">
+        <v>6.25E-2</v>
+      </c>
       <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="35"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C7" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C7" s="33"/>
       <c r="D7" s="25"/>
       <c r="E7" s="33"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="25"/>
+      <c r="G7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="34"/>
       <c r="N7" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C8" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E8" s="35"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="25"/>
+      <c r="G8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K8" s="25"/>
-      <c r="L8" s="35"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="34"/>
       <c r="N8" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C9" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="33"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="25"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="34"/>
       <c r="N9" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C10" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="25"/>
+      <c r="G10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="34"/>
       <c r="N10" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C11" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="25"/>
+      <c r="G11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="34"/>
       <c r="N11" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C12" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="25"/>
+      <c r="G12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="34"/>
       <c r="N12" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="7">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C13" s="33">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="25"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="35"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="34"/>
       <c r="N13" s="1">
         <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="30"/>
       <c r="M14" s="32"/>
       <c r="N14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7">
-        <v>6.25E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="E15" s="33"/>
       <c r="F15" s="25"/>
       <c r="G15" s="33"/>
-      <c r="I15" s="33">
-        <v>6.25E-2</v>
-      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
       <c r="N15" s="1">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B16" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="25"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D16" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E16" s="33"/>
       <c r="F16" s="25"/>
       <c r="G16" s="33"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="34"/>
       <c r="N16" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.19444444444444442</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>59</v>
+      <c r="A17" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B17" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25">
+        <v>0.125</v>
+      </c>
       <c r="E17" s="33"/>
       <c r="F17" s="25"/>
       <c r="G17" s="33"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="34"/>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <f>SUM(C17:M17)</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="34"/>
+      <c r="A18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="46"/>
       <c r="N18" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
+      <c r="A19" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="33"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
       <c r="N19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="25"/>
+      <c r="D20" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E20" s="33"/>
       <c r="F20" s="25"/>
       <c r="G20" s="33"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="33"/>
-      <c r="J20" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="34"/>
       <c r="N20" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>61</v>
+      <c r="A21" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F21" s="25"/>
       <c r="G21" s="33"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="34"/>
       <c r="N21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>62</v>
+      <c r="A22" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B22" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F22" s="25"/>
       <c r="G22" s="33"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="34"/>
       <c r="N22" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="32"/>
+      <c r="A23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="7">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="25">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
+      <c r="A24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>78</v>
+      <c r="A25" t="s">
+        <v>79</v>
       </c>
       <c r="B25" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C25" s="33"/>
-      <c r="D25" s="25">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G25" s="33"/>
       <c r="H25" s="25"/>
       <c r="I25" s="33"/>
@@ -5345,23 +5313,22 @@
       <c r="M25" s="34"/>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
+      <c r="A26" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C26" s="33"/>
-      <c r="D26" s="25">
-        <v>0.125</v>
-      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H26" s="25"/>
       <c r="I26" s="33"/>
       <c r="J26" s="25"/>
@@ -5369,45 +5336,51 @@
       <c r="L26" s="33"/>
       <c r="M26" s="34"/>
       <c r="N26" s="1">
-        <f>SUM(C26:M26)</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="47"/>
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I27" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>65</v>
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E28" s="33"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H28" s="25"/>
       <c r="I28" s="33"/>
       <c r="J28" s="25"/>
@@ -5416,48 +5389,46 @@
       <c r="M28" s="34"/>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
+      <c r="A29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>40</v>
+      <c r="A30" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="25"/>
       <c r="E30" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="33"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F30" s="25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="33"/>
       <c r="J30" s="25"/>
@@ -5466,37 +5437,33 @@
       <c r="M30" s="34"/>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="33">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
+      <c r="A31" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>79</v>
+      <c r="A32" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="B32" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5505,11 +5472,11 @@
       <c r="D32" s="25"/>
       <c r="E32" s="33"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H32" s="25"/>
-      <c r="I32" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="I32" s="33"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="33"/>
@@ -5520,29 +5487,35 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="40"/>
+      <c r="A33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H33" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
       <c r="N33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="N33" si="2">SUM(C33:M33)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>80</v>
+      <c r="A34" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="7">
         <v>4.1666666666666664E-2</v>
@@ -5550,11 +5523,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="25"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -5566,44 +5539,39 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="33"/>
-      <c r="G35" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
+      <c r="A35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="39"/>
       <c r="N35" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <f>SUM(C35:M35)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>75</v>
+      <c r="A36" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="B36" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="25"/>
       <c r="E36" s="33"/>
       <c r="F36" s="25"/>
       <c r="G36" s="33"/>
-      <c r="H36" s="25">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="H36" s="25"/>
       <c r="I36" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5613,199 +5581,189 @@
       <c r="M36" s="34"/>
       <c r="N36" s="1">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="33">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="34"/>
+      <c r="A37" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="39"/>
       <c r="N37" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="40"/>
+        <f>SUM(C37:M37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="33"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K38" s="25"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N38" si="3">SUM(C38:M38)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="15">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F39" s="25">
-        <v>6.25E-2</v>
-      </c>
+      <c r="E39" s="33"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I39" s="33"/>
-      <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="33"/>
       <c r="M39" s="34"/>
       <c r="N39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N39" si="4">SUM(C39:M39)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="40"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="33"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="7">
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" ref="N40" si="5">SUM(C40:M40)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="15">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="25"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H41" s="25"/>
+      <c r="F41" s="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="33"/>
       <c r="M41" s="34"/>
       <c r="N41" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="7">
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="15">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="25"/>
       <c r="E42" s="33"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="33">
-        <v>6.25E-2</v>
-      </c>
+      <c r="G42" s="25"/>
       <c r="H42" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="25"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="33"/>
       <c r="K42" s="25"/>
       <c r="L42" s="33"/>
       <c r="M42" s="34"/>
       <c r="N42" s="1">
-        <f t="shared" ref="N42" si="2">SUM(C42:M42)</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="34"/>
+      <c r="A43" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="39"/>
       <c r="N43" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <f>SUM(C43:M43)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="40"/>
+      <c r="A44" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="33"/>
+      <c r="I44" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="1">
-        <f>SUM(C44:M44)</f>
-        <v>0</v>
+        <f t="shared" ref="N44" si="6">SUM(C44:M44)</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -5820,12 +5778,10 @@
       <c r="E45" s="33"/>
       <c r="F45" s="25"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="25"/>
       <c r="I45" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="J45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="34"/>
       <c r="N45" s="1">
@@ -5834,727 +5790,497 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="40"/>
+      <c r="A46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="1">
         <f>SUM(C46:M46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="15">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="33"/>
-      <c r="G47" s="25"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H47" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="34"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="L47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M47" s="33">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47" si="3">SUM(C47:M47)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="15">
-        <v>4.1666666666666664E-2</v>
+        <f>SUM(C47:M47)</f>
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C48" s="33"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="33"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H48" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
+      <c r="I48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K48" s="33">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L48" s="33">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M48" s="34">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="N48" s="1">
-        <f t="shared" ref="N48" si="4">SUM(C48:M48)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>0.70833333333333326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B49" s="15">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C49" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D49" s="33">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E49" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="33"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="33">
+      <c r="F49" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="33"/>
-      <c r="K49" s="25"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="34"/>
       <c r="N49" s="1">
-        <f t="shared" ref="N49" si="5">SUM(C49:M49)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="15">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="25">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="34"/>
+        <f t="shared" si="0"/>
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="41"/>
       <c r="N50" s="1">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="15">
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.54166666666666663</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="33"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="34"/>
+      <c r="J51" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K51" s="25">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="L51" s="25">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="M51" s="34">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N51" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="1">
-        <f>SUM(C52:M52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="33"/>
-      <c r="I53" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="1">
-        <f t="shared" ref="N53" si="6">SUM(C53:M53)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="33"/>
-      <c r="I54" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="1">
-        <f>SUM(C55:M55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="7">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M56" s="33">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="N56" s="1">
-        <f>SUM(C56:M56)</f>
-        <v>0.22916666666666669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="7">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K57" s="33">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L57" s="33">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M57" s="34">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="N57" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="15">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="C58" s="33">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D58" s="33">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="E58" s="33">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F58" s="33">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2638888888888889</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K60" s="25">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="L60" s="25">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="M60" s="34">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49">
-        <f t="shared" ref="B61:M61" si="7">SUM(B2:B60)</f>
-        <v>3.666666666666667</v>
-      </c>
-      <c r="C61" s="49">
+      <c r="A52" s="47"/>
+      <c r="B52" s="48">
+        <f t="shared" ref="B52:M52" si="7">SUM(B2:B51)</f>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="C52" s="48">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="D61" s="49">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="E61" s="49">
+      <c r="E52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G61" s="49">
+      <c r="G52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I61" s="49">
+      <c r="I52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J61" s="49">
+      <c r="J52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K61" s="49">
+      <c r="K52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L61" s="49">
+      <c r="L52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M61" s="49">
+      <c r="M52" s="48">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M62" s="1">
-        <f>SUM(C61:M61)</f>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <f>SUM(C52:M52)</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="N62" s="1">
-        <f>SUM(N2:N60)</f>
+      <c r="N53" s="1">
+        <f>SUM(N2:N51)</f>
         <v>3.666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 F14 H14:I14 I46 H50:H51 H57:I58 I57:I59 L57:L59 F57:F58 E57:E59 C57:C59 G57:G59 G44 G46 L50:L51 L46 E50:E51 E46 C50:C51 C46 I3:I30 E55:I55 E43:E44 L43:L44 I43:I44 C43:C44 E32:E41 L32:L41 G32:G41 C32:C41 L54:L55 L3:L30 G54 G3:G30 E54 E3:E30 C54:C55 C3:C30 I32:I41">
-    <cfRule type="cellIs" dxfId="485" priority="430" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C59 E59:M59 C50:E50 C51:F51 H51 C46:M46 C44:M44 I43:M44 C43:F44 G50:H50 C54:G54 C55:M55 K50:M51 L54:M54 C57:L58 C4:M14 L15:M15 C15:J15 C36:M41 C35:E35 G35:M35 C32:M34 C16:M30">
-    <cfRule type="cellIs" dxfId="484" priority="429" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59:K59 F59 H59 M59">
-    <cfRule type="cellIs" dxfId="483" priority="426" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 G14 J14:K14 J55:K55 G55 D55 D57:D58 G57:G58 J57:K58">
-    <cfRule type="cellIs" dxfId="482" priority="425" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59 E59:M59 C50:E50 C51:F51 H51 C46:M46 C44:M44 I43:M44 C43:F44 G50:H50 C54:G54 C55:M55 K50:M51 L54:M54 C57:L58 C2:M14 L15:M15 C15:J15 C36:M41 C35:E35 G35:M35 C32:M34 C16:M30">
-    <cfRule type="cellIs" dxfId="481" priority="422" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="423" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="424" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N50:N51 N43:N46 N54:N60 N2:N41">
-    <cfRule type="cellIs" dxfId="478" priority="415" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 F5 H5:I5 I37 H41:H42 H48:I49 I48:I50 L48:L50 F48:F49 E48:E50 C48:C50 G48:G50 G35 G37 L41:L42 L37 E41:E42 E37 C41:C42 C37 E46:I46 E34:E35 L34:L35 I34:I35 C34:C35 E23:E32 L23:L32 G23:G32 C23:C32 L45:L46 G45 E45 C45:C46 I23:I32 I3:I21 L3:L21 G3:G21 E3:E21 C3:C21">
+    <cfRule type="cellIs" dxfId="480" priority="430" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M2 C50 E50:M50 C41:E41 C42:F42 H42 C37:M37 C35:M35 I34:M35 C34:F35 G41:H41 C45:G45 C46:M46 K41:M42 L45:M45 C48:L49 L6:M6 C6:J6 C27:M32 C26:E26 G26:M26 C23:M25 C4:M5 C7:M21">
+    <cfRule type="cellIs" dxfId="479" priority="429" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:K50 F50 H50 M50">
+    <cfRule type="cellIs" dxfId="478" priority="426" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5 G5 J5:K5 J46:K46 G46 D46 D48:D49 G48:G49 J48:K49">
+    <cfRule type="cellIs" dxfId="477" priority="425" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50 E50:M50 C41:E41 C42:F42 H42 C37:M37 C35:M35 I34:M35 C34:F35 G41:H41 C45:G45 C46:M46 K41:M42 L45:M45 C48:L49 L6:M6 C6:J6 C27:M32 C26:E26 G26:M26 C23:M25 C2:M5 C7:M21">
+    <cfRule type="cellIs" dxfId="476" priority="422" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="423" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="424" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:N42 N34:N37 N45:N51 N2:N32">
+    <cfRule type="cellIs" dxfId="473" priority="415" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="421" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="476" priority="417" operator="greaterThan">
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="471" priority="417" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="419" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:M61">
-    <cfRule type="cellIs" dxfId="474" priority="416" operator="greaterThan">
+  <conditionalFormatting sqref="C52:M52">
+    <cfRule type="cellIs" dxfId="469" priority="416" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="418" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="472" priority="412" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J58">
-    <cfRule type="cellIs" dxfId="471" priority="411" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K58">
-    <cfRule type="cellIs" dxfId="470" priority="410" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60 C60 G60 I60 L60">
-    <cfRule type="cellIs" dxfId="469" priority="404" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:M60">
-    <cfRule type="cellIs" dxfId="468" priority="403" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:M60">
-    <cfRule type="cellIs" dxfId="467" priority="400" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="401" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="402" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="464" priority="394" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="463" priority="393" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="462" priority="392" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="461" priority="391" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="460" priority="388" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="389" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="390" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="457" priority="387" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="456" priority="381" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="455" priority="378" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="cellIs" dxfId="454" priority="377" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M16">
-    <cfRule type="cellIs" dxfId="453" priority="369" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M16">
-    <cfRule type="cellIs" dxfId="452" priority="366" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="367" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="368" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
-    <cfRule type="cellIs" dxfId="449" priority="365" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
-    <cfRule type="cellIs" dxfId="448" priority="362" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="363" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="364" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M58">
-    <cfRule type="cellIs" dxfId="445" priority="353" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M58">
-    <cfRule type="cellIs" dxfId="444" priority="350" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="351" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="352" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="441" priority="349" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="440" priority="346" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="347" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="348" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45 L45 E45 C45">
-    <cfRule type="cellIs" dxfId="437" priority="337" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:G45 J45:M45">
-    <cfRule type="cellIs" dxfId="436" priority="336" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:G45 J45:M45">
-    <cfRule type="cellIs" dxfId="435" priority="333" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="334" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="335" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="432" priority="325" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="J48:J49">
+    <cfRule type="cellIs" dxfId="467" priority="411" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:K49">
+    <cfRule type="cellIs" dxfId="466" priority="410" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51 C51 G51 I51 L51">
+    <cfRule type="cellIs" dxfId="465" priority="404" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:M51">
+    <cfRule type="cellIs" dxfId="464" priority="403" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:M51">
+    <cfRule type="cellIs" dxfId="463" priority="400" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="401" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="402" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="460" priority="394" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="459" priority="393" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="458" priority="392" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="457" priority="391" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="456" priority="388" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="389" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="390" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="453" priority="387" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M7">
+    <cfRule type="cellIs" dxfId="452" priority="369" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M7">
+    <cfRule type="cellIs" dxfId="451" priority="366" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="367" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="368" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="cellIs" dxfId="448" priority="365" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="cellIs" dxfId="447" priority="362" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="363" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="364" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49">
+    <cfRule type="cellIs" dxfId="444" priority="353" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49">
+    <cfRule type="cellIs" dxfId="443" priority="350" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="351" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="352" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48">
+    <cfRule type="cellIs" dxfId="440" priority="349" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48">
+    <cfRule type="cellIs" dxfId="439" priority="346" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="347" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="348" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36 L36 E36 C36">
+    <cfRule type="cellIs" dxfId="436" priority="337" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:G36 J36:M36">
+    <cfRule type="cellIs" dxfId="435" priority="336" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:G36 J36:M36">
+    <cfRule type="cellIs" dxfId="434" priority="333" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="334" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="335" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="431" priority="319" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="430" priority="318" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="429" priority="317" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="428" priority="316" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G34">
     <cfRule type="cellIs" dxfId="427" priority="315" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G34">
     <cfRule type="cellIs" dxfId="426" priority="314" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G34">
     <cfRule type="cellIs" dxfId="425" priority="311" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6565,17 +6291,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="422" priority="310" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="421" priority="309" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="420" priority="306" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6586,17 +6312,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="417" priority="300" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="416" priority="299" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="415" priority="296" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6607,17 +6333,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="412" priority="290" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="411" priority="289" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="410" priority="286" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6628,17 +6354,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="I42">
     <cfRule type="cellIs" dxfId="407" priority="285" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="I42">
     <cfRule type="cellIs" dxfId="406" priority="284" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
+  <conditionalFormatting sqref="I42">
     <cfRule type="cellIs" dxfId="405" priority="281" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6649,17 +6375,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J42">
     <cfRule type="cellIs" dxfId="402" priority="280" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J42">
     <cfRule type="cellIs" dxfId="401" priority="279" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
+  <conditionalFormatting sqref="J42">
     <cfRule type="cellIs" dxfId="400" priority="276" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6670,17 +6396,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="397" priority="275" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="396" priority="274" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="395" priority="271" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6691,17 +6417,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="392" priority="260" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="391" priority="259" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="390" priority="256" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6712,17 +6438,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="L7">
     <cfRule type="cellIs" dxfId="387" priority="255" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="L7">
     <cfRule type="cellIs" dxfId="386" priority="254" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="L7">
     <cfRule type="cellIs" dxfId="385" priority="251" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6733,17 +6459,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="382" priority="250" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="381" priority="249" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="380" priority="246" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6754,17 +6480,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="377" priority="245" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="376" priority="244" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="375" priority="241" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6775,17 +6501,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="cellIs" dxfId="372" priority="240" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="cellIs" dxfId="371" priority="239" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="cellIs" dxfId="370" priority="236" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6796,17 +6522,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="367" priority="235" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="366" priority="234" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="L12">
     <cfRule type="cellIs" dxfId="365" priority="231" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6817,17 +6543,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56 E56 G56 I56 L56">
+  <conditionalFormatting sqref="C47 E47 G47 I47 L47">
     <cfRule type="cellIs" dxfId="362" priority="225" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:G56 I56:J56 L56">
+  <conditionalFormatting sqref="C47:G47 I47:J47 L47">
     <cfRule type="cellIs" dxfId="361" priority="224" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:G56 I56:J56 L56">
+  <conditionalFormatting sqref="C47:G47 I47:J47 L47">
     <cfRule type="cellIs" dxfId="360" priority="221" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6838,12 +6564,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="357" priority="208" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="356" priority="205" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6854,42 +6580,42 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D47">
     <cfRule type="cellIs" dxfId="353" priority="211" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F47">
     <cfRule type="cellIs" dxfId="352" priority="210" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="351" priority="209" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="350" priority="204" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="349" priority="186" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="K47">
     <cfRule type="cellIs" dxfId="348" priority="198" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="K47">
     <cfRule type="cellIs" dxfId="347" priority="197" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="K47">
     <cfRule type="cellIs" dxfId="346" priority="194" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6900,17 +6626,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
+  <conditionalFormatting sqref="M47">
     <cfRule type="cellIs" dxfId="343" priority="193" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
+  <conditionalFormatting sqref="M47">
     <cfRule type="cellIs" dxfId="342" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
+  <conditionalFormatting sqref="M47">
     <cfRule type="cellIs" dxfId="341" priority="189" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6921,47 +6647,47 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="338" priority="188" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="337" priority="187" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C48">
     <cfRule type="cellIs" dxfId="336" priority="185" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C48">
     <cfRule type="cellIs" dxfId="335" priority="184" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C48">
     <cfRule type="cellIs" dxfId="334" priority="183" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="333" priority="182" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52 G52 L52 E52 C52">
+  <conditionalFormatting sqref="I43 G43 L43 E43 C43">
     <cfRule type="cellIs" dxfId="332" priority="174" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:M52">
+  <conditionalFormatting sqref="C43:M43">
     <cfRule type="cellIs" dxfId="331" priority="173" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:M52">
+  <conditionalFormatting sqref="C43:M43">
     <cfRule type="cellIs" dxfId="330" priority="170" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6972,25 +6698,25 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
+  <conditionalFormatting sqref="N43">
     <cfRule type="cellIs" dxfId="327" priority="168" operator="greaterThan">
-      <formula>$B52</formula>
+      <formula>$B43</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="326" priority="169" operator="equal">
-      <formula>$B52</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22 G22 E22 C22">
+      <formula>$B43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13 G13 E13 C13">
     <cfRule type="cellIs" dxfId="325" priority="167" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:G22 I22:K22 M22">
+  <conditionalFormatting sqref="C13:G13 I13:K13 M13">
     <cfRule type="cellIs" dxfId="324" priority="166" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:G22 I22:K22 M22">
+  <conditionalFormatting sqref="C13:G13 I13:K13 M13">
     <cfRule type="cellIs" dxfId="323" priority="163" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7001,17 +6727,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="320" priority="160" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="319" priority="159" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="318" priority="156" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7022,17 +6748,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="315" priority="155" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="314" priority="154" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="313" priority="151" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7043,17 +6769,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 L49 E49 C49">
+  <conditionalFormatting sqref="H40 L40 E40 C40">
     <cfRule type="cellIs" dxfId="310" priority="150" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:E49 G49:H49 K49:M49">
+  <conditionalFormatting sqref="C40:E40 G40:H40 K40:M40">
     <cfRule type="cellIs" dxfId="309" priority="149" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:E49 G49:H49 K49:M49">
+  <conditionalFormatting sqref="C40:E40 G40:H40 K40:M40">
     <cfRule type="cellIs" dxfId="308" priority="146" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7064,25 +6790,25 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
+  <conditionalFormatting sqref="N40">
     <cfRule type="cellIs" dxfId="305" priority="144" operator="greaterThan">
-      <formula>$B49</formula>
+      <formula>$B40</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="304" priority="145" operator="equal">
-      <formula>$B49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+      <formula>$B40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
     <cfRule type="cellIs" dxfId="303" priority="143" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I40">
     <cfRule type="cellIs" dxfId="302" priority="142" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I40">
     <cfRule type="cellIs" dxfId="301" priority="139" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7093,17 +6819,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42 L42 I42 C42">
+  <conditionalFormatting sqref="E33 L33 I33 C33">
     <cfRule type="cellIs" dxfId="298" priority="138" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:M42 C42:F42">
+  <conditionalFormatting sqref="I33:M33 C33:F33">
     <cfRule type="cellIs" dxfId="297" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42:M42 C42:F42">
+  <conditionalFormatting sqref="I33:M33 C33:F33">
     <cfRule type="cellIs" dxfId="296" priority="134" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7114,25 +6840,25 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
+  <conditionalFormatting sqref="N33">
     <cfRule type="cellIs" dxfId="293" priority="132" operator="greaterThan">
-      <formula>$B42</formula>
+      <formula>$B33</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="292" priority="133" operator="equal">
-      <formula>$B42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+      <formula>$B33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="cellIs" dxfId="291" priority="131" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G33">
     <cfRule type="cellIs" dxfId="290" priority="130" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G33">
     <cfRule type="cellIs" dxfId="289" priority="127" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7143,17 +6869,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H33">
     <cfRule type="cellIs" dxfId="286" priority="126" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H33">
     <cfRule type="cellIs" dxfId="285" priority="125" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H33">
     <cfRule type="cellIs" dxfId="284" priority="122" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7164,17 +6890,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I39">
     <cfRule type="cellIs" dxfId="281" priority="95" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I39">
     <cfRule type="cellIs" dxfId="280" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I39">
     <cfRule type="cellIs" dxfId="279" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7185,17 +6911,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31 L31 I31 G31 C31">
+  <conditionalFormatting sqref="E22 L22 I22 G22 C22">
     <cfRule type="cellIs" dxfId="276" priority="109" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:M31">
+  <conditionalFormatting sqref="C22:M22">
     <cfRule type="cellIs" dxfId="275" priority="108" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:M31">
+  <conditionalFormatting sqref="C22:M22">
     <cfRule type="cellIs" dxfId="274" priority="105" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7206,17 +6932,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48 E48 C48">
+  <conditionalFormatting sqref="L39 E39 C39">
     <cfRule type="cellIs" dxfId="271" priority="102" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:E48 G48 K48:M48">
+  <conditionalFormatting sqref="C39:E39 G39 K39:M39">
     <cfRule type="cellIs" dxfId="270" priority="101" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:E48 G48 K48:M48">
+  <conditionalFormatting sqref="C39:E39 G39 K39:M39">
     <cfRule type="cellIs" dxfId="269" priority="98" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7227,25 +6953,25 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48">
+  <conditionalFormatting sqref="N39">
     <cfRule type="cellIs" dxfId="266" priority="96" operator="greaterThan">
-      <formula>$B48</formula>
+      <formula>$B39</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="265" priority="97" operator="equal">
-      <formula>$B48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+      <formula>$B39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="264" priority="83" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="263" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="262" priority="79" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7256,17 +6982,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J44">
     <cfRule type="cellIs" dxfId="259" priority="71" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J44">
     <cfRule type="cellIs" dxfId="258" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
+  <conditionalFormatting sqref="J44">
     <cfRule type="cellIs" dxfId="257" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7277,17 +7003,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47 E47 C47">
+  <conditionalFormatting sqref="L38 E38 C38">
     <cfRule type="cellIs" dxfId="254" priority="90" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:E47 G47:H47 K47:M47">
+  <conditionalFormatting sqref="C38:E38 G38:H38 K38:M38">
     <cfRule type="cellIs" dxfId="253" priority="89" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:E47 G47:H47 K47:M47">
+  <conditionalFormatting sqref="C38:E38 G38:H38 K38:M38">
     <cfRule type="cellIs" dxfId="252" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7298,25 +7024,25 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47">
+  <conditionalFormatting sqref="N38">
     <cfRule type="cellIs" dxfId="249" priority="84" operator="greaterThan">
-      <formula>$B47</formula>
+      <formula>$B38</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="248" priority="85" operator="equal">
-      <formula>$B47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53 G53 E53 C53">
+      <formula>$B38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44 G44 E44 C44">
     <cfRule type="cellIs" dxfId="247" priority="78" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:G53 L53:M53">
+  <conditionalFormatting sqref="C44:G44 L44:M44">
     <cfRule type="cellIs" dxfId="246" priority="77" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:G53 L53:M53">
+  <conditionalFormatting sqref="C44:G44 L44:M44">
     <cfRule type="cellIs" dxfId="245" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7327,20 +7053,20 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
+  <conditionalFormatting sqref="N44">
     <cfRule type="cellIs" dxfId="242" priority="72" operator="greaterThan">
-      <formula>$B53</formula>
+      <formula>$B44</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="241" priority="73" operator="equal">
-      <formula>$B53</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+      <formula>$B44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="240" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="239" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7351,17 +7077,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="236" priority="62" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="235" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="234" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7372,17 +7098,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="231" priority="57" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="230" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="229" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7393,17 +7119,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
+  <conditionalFormatting sqref="I44">
     <cfRule type="cellIs" dxfId="226" priority="52" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
+  <conditionalFormatting sqref="I44">
     <cfRule type="cellIs" dxfId="225" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
+  <conditionalFormatting sqref="I44">
     <cfRule type="cellIs" dxfId="224" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7414,17 +7140,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I36">
     <cfRule type="cellIs" dxfId="221" priority="47" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I36">
     <cfRule type="cellIs" dxfId="220" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I36">
     <cfRule type="cellIs" dxfId="219" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7435,22 +7161,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="216" priority="42" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="215" priority="41" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="214" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="213" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7461,22 +7187,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="210" priority="36" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="209" priority="35" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="208" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="207" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7487,22 +7213,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="204" priority="30" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="203" priority="29" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="202" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="201" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7513,22 +7239,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="198" priority="24" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="197" priority="23" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="196" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="195" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7539,22 +7265,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="192" priority="18" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="191" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="190" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="189" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7565,22 +7291,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="186" priority="12" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="185" priority="11" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="184" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="183" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7591,22 +7317,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="180" priority="6" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="179" priority="5" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="178" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="177" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8101,21 +7827,21 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="47"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8228,17 +7954,17 @@
         <v>25</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="40"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="39"/>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8328,17 +8054,17 @@
         <v>24</v>
       </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="40"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8376,17 +8102,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="21"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="40"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8551,17 +8277,17 @@
         <v>22</v>
       </c>
       <c r="B38" s="21"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="40"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="39"/>
       <c r="N38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8620,17 +8346,17 @@
         <v>23</v>
       </c>
       <c r="B41" s="21"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="40"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="39"/>
       <c r="N41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8987,7 +8713,7 @@
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="41"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
@@ -8996,7 +8722,7 @@
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
-      <c r="M56" s="42"/>
+      <c r="M56" s="41"/>
       <c r="N56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9063,52 +8789,52 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49">
+      <c r="A59" s="47"/>
+      <c r="B59" s="48">
         <f>SUM(B2:B58)</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <f t="shared" ref="C59:M59" si="1">SUM(C2:C58)</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J59" s="49">
+      <c r="J59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K59" s="49">
+      <c r="K59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L59" s="49">
+      <c r="L59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M59" s="49">
+      <c r="M59" s="48">
         <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>

--- a/docs/planning/TF_PlanificationProjet.xlsx
+++ b/docs/planning/TF_PlanificationProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\PHP\ProjectTPI\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFBE0CA-B0B0-4E9A-8E88-7B51CBB6C0D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3BB37E-4BDB-484F-81BE-16618FE68D13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="1" r:id="rId1"/>
@@ -4688,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5077,7 +5077,7 @@
         <v>84</v>
       </c>
       <c r="B16" s="7">
-        <v>0.1111111111111111</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C16" s="33">
         <v>0.1111111111111111</v>
@@ -5985,7 +5985,7 @@
       <c r="A52" s="47"/>
       <c r="B52" s="48">
         <f t="shared" ref="B52:M52" si="7">SUM(B2:B51)</f>
-        <v>3.5833333333333335</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C52" s="48">
         <f t="shared" si="7"/>
